--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,162 +476,194 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PPE_Gross</t>
+          <t>Goodwill</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14507</v>
+        <v>17707</v>
       </c>
       <c r="C2" t="n">
-        <v>15187</v>
+        <v>18277</v>
       </c>
       <c r="D2" t="n">
-        <v>13410</v>
+        <v>15546</v>
       </c>
       <c r="E2" t="n">
-        <v>13713</v>
+        <v>15563</v>
       </c>
       <c r="F2" t="n">
-        <v>14337</v>
+        <v>16058</v>
       </c>
       <c r="G2" t="n">
-        <v>14450</v>
+        <v>17756</v>
       </c>
       <c r="H2" t="n">
-        <v>14762</v>
+        <v>17497</v>
       </c>
       <c r="I2" t="n">
-        <v>15204.86</v>
+        <v>17497</v>
       </c>
       <c r="J2" t="n">
-        <v>15661.0058</v>
+        <v>17497</v>
       </c>
       <c r="K2" t="n">
-        <v>16130.835974</v>
+        <v>17497</v>
       </c>
       <c r="L2" t="n">
-        <v>16614.76105322</v>
+        <v>17497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>IA_Gross</t>
+          <t>PPE_Gross</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4634</v>
+        <v>14507</v>
       </c>
       <c r="C3" t="n">
-        <v>4496</v>
+        <v>15187</v>
       </c>
       <c r="D3" t="n">
-        <v>4139</v>
+        <v>13410</v>
       </c>
       <c r="E3" t="n">
-        <v>3734</v>
+        <v>13713</v>
       </c>
       <c r="F3" t="n">
-        <v>3560</v>
+        <v>14337</v>
       </c>
       <c r="G3" t="n">
-        <v>3613</v>
+        <v>14450</v>
       </c>
       <c r="H3" t="n">
-        <v>3222</v>
+        <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>3318.66</v>
+        <v>17146.33888947403</v>
       </c>
       <c r="J3" t="n">
-        <v>3418.2198</v>
+        <v>18931.27946320184</v>
       </c>
       <c r="K3" t="n">
-        <v>3520.766394</v>
+        <v>20616.89032432341</v>
       </c>
       <c r="L3" t="n">
-        <v>3626.38938582</v>
+        <v>23821.83733704711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>LTD_Current</t>
+          <t>PPE_Net</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227</v>
+        <v>5793</v>
       </c>
       <c r="C4" t="n">
-        <v>1351</v>
+        <v>5926</v>
       </c>
       <c r="D4" t="n">
-        <v>2872</v>
+        <v>5296</v>
       </c>
       <c r="E4" t="n">
-        <v>1376</v>
+        <v>5325</v>
       </c>
       <c r="F4" t="n">
-        <v>2445</v>
+        <v>5570</v>
       </c>
       <c r="G4" t="n">
-        <v>1803</v>
+        <v>5562</v>
       </c>
       <c r="H4" t="n">
-        <v>1730</v>
+        <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>1781.9</v>
+        <v>7855.338889474031</v>
       </c>
       <c r="J4" t="n">
-        <v>1835.357</v>
+        <v>9640.279463201838</v>
       </c>
       <c r="K4" t="n">
-        <v>1890.41771</v>
+        <v>11325.89032432341</v>
       </c>
       <c r="L4" t="n">
-        <v>1947.1302413</v>
+        <v>14530.83733704711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LTD_NonCurrent</t>
+          <t>IA_Gross</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12182</v>
+        <v>7313</v>
       </c>
       <c r="C5" t="n">
-        <v>12573</v>
+        <v>7627</v>
       </c>
       <c r="D5" t="n">
-        <v>9756</v>
+        <v>7486</v>
       </c>
       <c r="E5" t="n">
-        <v>11110</v>
+        <v>7471</v>
       </c>
       <c r="F5" t="n">
-        <v>16342</v>
+        <v>7719</v>
       </c>
       <c r="G5" t="n">
-        <v>15123</v>
+        <v>8058</v>
       </c>
       <c r="H5" t="n">
-        <v>14254</v>
+        <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>14681.62</v>
+        <v>7304.585407846131</v>
       </c>
       <c r="J5" t="n">
-        <v>15122.0686</v>
+        <v>7523.194585870023</v>
       </c>
       <c r="K5" t="n">
-        <v>15575.730658</v>
+        <v>7425.070517150846</v>
       </c>
       <c r="L5" t="n">
-        <v>16043.00257774</v>
-      </c>
+        <v>7320.970086883817</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>IA_Net</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4634</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4496</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4139</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3734</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3560</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3613</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3222</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,16 +541,16 @@
         <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>17146.33888947403</v>
+        <v>14806.69138234997</v>
       </c>
       <c r="J3" t="n">
-        <v>18931.27946320184</v>
+        <v>14176.30401898355</v>
       </c>
       <c r="K3" t="n">
-        <v>20616.89032432341</v>
+        <v>15275.45204337398</v>
       </c>
       <c r="L3" t="n">
-        <v>23821.83733704711</v>
+        <v>15976.27082448261</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>7855.338889474031</v>
+        <v>5515.691382349966</v>
       </c>
       <c r="J4" t="n">
-        <v>9640.279463201838</v>
+        <v>4885.30401898355</v>
       </c>
       <c r="K4" t="n">
-        <v>11325.89032432341</v>
+        <v>5984.452043373978</v>
       </c>
       <c r="L4" t="n">
-        <v>14530.83733704711</v>
+        <v>6685.270824482609</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>7304.585407846131</v>
+        <v>7865.607488765466</v>
       </c>
       <c r="J5" t="n">
-        <v>7523.194585870023</v>
+        <v>7824.936743677396</v>
       </c>
       <c r="K5" t="n">
-        <v>7425.070517150846</v>
+        <v>7778.655406412729</v>
       </c>
       <c r="L5" t="n">
-        <v>7320.970086883817</v>
+        <v>7733.446919900805</v>
       </c>
     </row>
     <row r="6">
@@ -660,10 +660,98 @@
       <c r="H6" t="n">
         <v>3222</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>3162.607488765466</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3121.936743677397</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3075.655406412729</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3030.446919900807</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>LTD_Current</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>227</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2872</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1376</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2445</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1803</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1730</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1781.9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1835.357</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1890.41771</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1947.1302413</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LTD_NonCurrent</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12182</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12573</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9756</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11110</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16342</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14254</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15123</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15576.69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16043.9907</v>
+      </c>
+      <c r="K8" t="n">
+        <v>16525.310421</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17021.06973363</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,16 +541,16 @@
         <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>14806.69138234997</v>
+        <v>14463.70823135121</v>
       </c>
       <c r="J3" t="n">
-        <v>14176.30401898355</v>
+        <v>13707.58262544725</v>
       </c>
       <c r="K3" t="n">
-        <v>15275.45204337398</v>
+        <v>13415.30268002718</v>
       </c>
       <c r="L3" t="n">
-        <v>15976.27082448261</v>
+        <v>13206.96832629097</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>5515.691382349966</v>
+        <v>5172.708231351208</v>
       </c>
       <c r="J4" t="n">
-        <v>4885.30401898355</v>
+        <v>4416.582625447251</v>
       </c>
       <c r="K4" t="n">
-        <v>5984.452043373978</v>
+        <v>4124.302680027182</v>
       </c>
       <c r="L4" t="n">
-        <v>6685.270824482609</v>
+        <v>3915.968326290969</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>7865.607488765466</v>
+        <v>7877.219174544729</v>
       </c>
       <c r="J5" t="n">
-        <v>7824.936743677396</v>
+        <v>7865.824937212248</v>
       </c>
       <c r="K5" t="n">
-        <v>7778.655406412729</v>
+        <v>7742.740873563075</v>
       </c>
       <c r="L5" t="n">
-        <v>7733.446919900805</v>
+        <v>7669.540902163073</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>3222</v>
       </c>
       <c r="I6" t="n">
-        <v>3162.607488765466</v>
+        <v>3174.219174544729</v>
       </c>
       <c r="J6" t="n">
-        <v>3121.936743677397</v>
+        <v>3162.824937212248</v>
       </c>
       <c r="K6" t="n">
-        <v>3075.655406412729</v>
+        <v>3039.740873563075</v>
       </c>
       <c r="L6" t="n">
-        <v>3030.446919900807</v>
+        <v>2966.540902163073</v>
       </c>
     </row>
     <row r="7">
@@ -751,6 +751,286 @@
       </c>
       <c r="L8" t="n">
         <v>17021.06973363</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8177</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8866</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7508</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7493</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6827</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6830</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7440</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7084.463476233543</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7754.245802483989</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9356.328760831449</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10383.312448112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5690</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6584</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5607</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5730</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5750</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6484</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6329</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4966.941839720193</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6772.884519898691</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6838.901744677241</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6234.481169771927</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Inv</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4366</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4613</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4326</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4421</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4489</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5138</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5538</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4642.421616079805</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4764.572650831158</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5485.389242041873</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4905.134532082059</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Other_CA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1152</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1706</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1618</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1973</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1639</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1881</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1894</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1472.798173882493</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2140.999825581559</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3058.827627060678</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1696.009652119617</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Other_NCA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2367</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7688</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9166</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10538</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10945</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10158</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9925.907037109575</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16041.52559498995</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13732.89503089356</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10994.65584415767</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Other_CL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7048</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6968</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6859</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7476</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7405</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7679</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9162</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6321.444931220693</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8027.859005773212</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6267.996214476161</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9581.355896916129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Other_NCL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6086</v>
+      </c>
+      <c r="C15" t="n">
+        <v>11371</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10735</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10765</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11257</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11466</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9895</v>
+      </c>
+      <c r="I15" t="n">
+        <v>14709.13077574963</v>
+      </c>
+      <c r="J15" t="n">
+        <v>11419.9290123558</v>
+      </c>
+      <c r="K15" t="n">
+        <v>13697.84697901412</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12186.41347125927</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -541,16 +541,16 @@
         <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>14463.70823135121</v>
+        <v>14934.02423698845</v>
       </c>
       <c r="J3" t="n">
-        <v>13707.58262544725</v>
+        <v>14878.34021203125</v>
       </c>
       <c r="K3" t="n">
-        <v>13415.30268002718</v>
+        <v>15692.76044340253</v>
       </c>
       <c r="L3" t="n">
-        <v>13206.96832629097</v>
+        <v>15840.84960700062</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>5172.708231351208</v>
+        <v>5643.024236988455</v>
       </c>
       <c r="J4" t="n">
-        <v>4416.582625447251</v>
+        <v>5587.340212031251</v>
       </c>
       <c r="K4" t="n">
-        <v>4124.302680027182</v>
+        <v>6401.760443402525</v>
       </c>
       <c r="L4" t="n">
-        <v>3915.968326290969</v>
+        <v>6549.849607000626</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>7877.219174544729</v>
+        <v>7780.087591729593</v>
       </c>
       <c r="J5" t="n">
-        <v>7865.824937212248</v>
+        <v>7677.368555801555</v>
       </c>
       <c r="K5" t="n">
-        <v>7742.740873563075</v>
+        <v>7670.547547682124</v>
       </c>
       <c r="L5" t="n">
-        <v>7669.540902163073</v>
+        <v>7617.777125656497</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>3222</v>
       </c>
       <c r="I6" t="n">
-        <v>3174.219174544729</v>
+        <v>3077.087591729593</v>
       </c>
       <c r="J6" t="n">
-        <v>3162.824937212248</v>
+        <v>2974.368555801555</v>
       </c>
       <c r="K6" t="n">
-        <v>3039.740873563075</v>
+        <v>2967.547547682123</v>
       </c>
       <c r="L6" t="n">
-        <v>2966.540902163073</v>
+        <v>2914.777125656497</v>
       </c>
     </row>
     <row r="7">
@@ -781,16 +781,16 @@
         <v>7440</v>
       </c>
       <c r="I9" t="n">
-        <v>7084.463476233543</v>
+        <v>7648.568755519631</v>
       </c>
       <c r="J9" t="n">
-        <v>7754.245802483989</v>
+        <v>7626.474205934725</v>
       </c>
       <c r="K9" t="n">
-        <v>9356.328760831449</v>
+        <v>9721.406045494321</v>
       </c>
       <c r="L9" t="n">
-        <v>10383.312448112</v>
+        <v>8836.806459650199</v>
       </c>
     </row>
     <row r="10">
@@ -821,16 +821,16 @@
         <v>6329</v>
       </c>
       <c r="I10" t="n">
-        <v>4966.941839720193</v>
+        <v>6368.700624774054</v>
       </c>
       <c r="J10" t="n">
-        <v>6772.884519898691</v>
+        <v>4930.31940065215</v>
       </c>
       <c r="K10" t="n">
-        <v>6838.901744677241</v>
+        <v>7237.999583040109</v>
       </c>
       <c r="L10" t="n">
-        <v>6234.481169771927</v>
+        <v>6308.852073907494</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>5538</v>
       </c>
       <c r="I11" t="n">
-        <v>4642.421616079805</v>
+        <v>4631.81090183096</v>
       </c>
       <c r="J11" t="n">
-        <v>4764.572650831158</v>
+        <v>4631.060389094901</v>
       </c>
       <c r="K11" t="n">
-        <v>5485.389242041873</v>
+        <v>3516.3102661308</v>
       </c>
       <c r="L11" t="n">
-        <v>4905.134532082059</v>
+        <v>6211.726045395474</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>1894</v>
       </c>
       <c r="I12" t="n">
-        <v>1472.798173882493</v>
+        <v>1881.881254341616</v>
       </c>
       <c r="J12" t="n">
-        <v>2140.999825581559</v>
+        <v>1689.259884879272</v>
       </c>
       <c r="K12" t="n">
-        <v>3058.827627060678</v>
+        <v>1913.37548109548</v>
       </c>
       <c r="L12" t="n">
-        <v>1696.009652119617</v>
+        <v>1567.357731666373</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>10158</v>
       </c>
       <c r="I13" t="n">
-        <v>9925.907037109575</v>
+        <v>5586.284214887783</v>
       </c>
       <c r="J13" t="n">
-        <v>16041.52559498995</v>
+        <v>16002.74050996324</v>
       </c>
       <c r="K13" t="n">
-        <v>13732.89503089356</v>
+        <v>8342.097829834081</v>
       </c>
       <c r="L13" t="n">
-        <v>10994.65584415767</v>
+        <v>7722.950772999303</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>9162</v>
       </c>
       <c r="I14" t="n">
-        <v>6321.444931220693</v>
+        <v>7364.241857798396</v>
       </c>
       <c r="J14" t="n">
-        <v>8027.859005773212</v>
+        <v>10970.95766871569</v>
       </c>
       <c r="K14" t="n">
-        <v>6267.996214476161</v>
+        <v>6773.5538655551</v>
       </c>
       <c r="L14" t="n">
-        <v>9581.355896916129</v>
+        <v>10937.69996427843</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>9895</v>
       </c>
       <c r="I15" t="n">
-        <v>14709.13077574963</v>
+        <v>6976.121133899201</v>
       </c>
       <c r="J15" t="n">
-        <v>11419.9290123558</v>
+        <v>7764.850076146535</v>
       </c>
       <c r="K15" t="n">
-        <v>13697.84697901412</v>
+        <v>8267.744144211221</v>
       </c>
       <c r="L15" t="n">
-        <v>12186.41347125927</v>
+        <v>12905.13899746384</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,16 +541,16 @@
         <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>14934.02423698845</v>
+        <v>15483.79340438181</v>
       </c>
       <c r="J3" t="n">
-        <v>14878.34021203125</v>
+        <v>14942.45123671909</v>
       </c>
       <c r="K3" t="n">
-        <v>15692.76044340253</v>
+        <v>14828.59402439194</v>
       </c>
       <c r="L3" t="n">
-        <v>15840.84960700062</v>
+        <v>14324.84448588809</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>5643.024236988455</v>
+        <v>6192.793404381809</v>
       </c>
       <c r="J4" t="n">
-        <v>5587.340212031251</v>
+        <v>5651.451236719086</v>
       </c>
       <c r="K4" t="n">
-        <v>6401.760443402525</v>
+        <v>5537.594024391942</v>
       </c>
       <c r="L4" t="n">
-        <v>6549.849607000626</v>
+        <v>5033.844485888093</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>7780.087591729593</v>
+        <v>7920.574609052014</v>
       </c>
       <c r="J5" t="n">
-        <v>7677.368555801555</v>
+        <v>7821.13978355974</v>
       </c>
       <c r="K5" t="n">
-        <v>7670.547547682124</v>
+        <v>7814.050179185245</v>
       </c>
       <c r="L5" t="n">
-        <v>7617.777125656497</v>
+        <v>7792.344983187198</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>3222</v>
       </c>
       <c r="I6" t="n">
-        <v>3077.087591729593</v>
+        <v>3217.574609052015</v>
       </c>
       <c r="J6" t="n">
-        <v>2974.368555801555</v>
+        <v>3118.13978355974</v>
       </c>
       <c r="K6" t="n">
-        <v>2967.547547682123</v>
+        <v>3111.050179185246</v>
       </c>
       <c r="L6" t="n">
-        <v>2914.777125656497</v>
+        <v>3089.344983187198</v>
       </c>
     </row>
     <row r="7">
@@ -781,16 +781,16 @@
         <v>7440</v>
       </c>
       <c r="I9" t="n">
-        <v>7648.568755519631</v>
+        <v>7747.270084936628</v>
       </c>
       <c r="J9" t="n">
-        <v>7626.474205934725</v>
+        <v>7783.151264592057</v>
       </c>
       <c r="K9" t="n">
-        <v>9721.406045494321</v>
+        <v>9303.295549413649</v>
       </c>
       <c r="L9" t="n">
-        <v>8836.806459650199</v>
+        <v>8806.295302360937</v>
       </c>
     </row>
     <row r="10">
@@ -821,16 +821,16 @@
         <v>6329</v>
       </c>
       <c r="I10" t="n">
-        <v>6368.700624774054</v>
+        <v>7593.026731854488</v>
       </c>
       <c r="J10" t="n">
-        <v>4930.31940065215</v>
+        <v>6396.936570211946</v>
       </c>
       <c r="K10" t="n">
-        <v>7237.999583040109</v>
+        <v>6482.487767235281</v>
       </c>
       <c r="L10" t="n">
-        <v>6308.852073907494</v>
+        <v>7315.168918440962</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>5538</v>
       </c>
       <c r="I11" t="n">
-        <v>4631.81090183096</v>
+        <v>3957.908650697719</v>
       </c>
       <c r="J11" t="n">
-        <v>4631.060389094901</v>
+        <v>6607.693794056043</v>
       </c>
       <c r="K11" t="n">
-        <v>3516.3102661308</v>
+        <v>4776.899457344946</v>
       </c>
       <c r="L11" t="n">
-        <v>6211.726045395474</v>
+        <v>6659.087484434123</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>1894</v>
       </c>
       <c r="I12" t="n">
-        <v>1881.881254341616</v>
+        <v>2091.154764929256</v>
       </c>
       <c r="J12" t="n">
-        <v>1689.259884879272</v>
+        <v>1357.332265072447</v>
       </c>
       <c r="K12" t="n">
-        <v>1913.37548109548</v>
+        <v>1690.351068738577</v>
       </c>
       <c r="L12" t="n">
-        <v>1567.357731666373</v>
+        <v>1932.320301549357</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>10158</v>
       </c>
       <c r="I13" t="n">
-        <v>5586.284214887783</v>
+        <v>16158.53078482407</v>
       </c>
       <c r="J13" t="n">
-        <v>16002.74050996324</v>
+        <v>11027.40085956693</v>
       </c>
       <c r="K13" t="n">
-        <v>8342.097829834081</v>
+        <v>10288.73117153517</v>
       </c>
       <c r="L13" t="n">
-        <v>7722.950772999303</v>
+        <v>10877.15815851117</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>9162</v>
       </c>
       <c r="I14" t="n">
-        <v>7364.241857798396</v>
+        <v>5431.812489422948</v>
       </c>
       <c r="J14" t="n">
-        <v>10970.95766871569</v>
+        <v>8364.439372221366</v>
       </c>
       <c r="K14" t="n">
-        <v>6773.5538655551</v>
+        <v>5811.170420547514</v>
       </c>
       <c r="L14" t="n">
-        <v>10937.69996427843</v>
+        <v>8904.689333173377</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,136 @@
         <v>9895</v>
       </c>
       <c r="I15" t="n">
-        <v>6976.121133899201</v>
+        <v>10661.07115546742</v>
       </c>
       <c r="J15" t="n">
-        <v>7764.850076146535</v>
+        <v>6057.015179470263</v>
       </c>
       <c r="K15" t="n">
-        <v>8267.744144211221</v>
+        <v>12212.52546211912</v>
       </c>
       <c r="L15" t="n">
-        <v>12905.13899746384</v>
+        <v>8001.009213669382</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>7843</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7059</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9287</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9067</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14275</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10959</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9627</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9007.296989156181</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7710.512576201685</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6119.224945685946</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5699.825720071295</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>ST_Inv</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3758</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1623</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1349</v>
+      </c>
+      <c r="F17" t="n">
+        <v>945</v>
+      </c>
+      <c r="G17" t="n">
+        <v>564</v>
+      </c>
+      <c r="H17" t="n">
+        <v>483</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-754.9305469578724</v>
+      </c>
+      <c r="J17" t="n">
+        <v>920.7541313876143</v>
+      </c>
+      <c r="K17" t="n">
+        <v>489.4213776571441</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2655.748094849524</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>LT_Inv</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>587</v>
+      </c>
+      <c r="C18" t="n">
+        <v>667</v>
+      </c>
+      <c r="D18" t="n">
+        <v>742</v>
+      </c>
+      <c r="E18" t="n">
+        <v>588</v>
+      </c>
+      <c r="F18" t="n">
+        <v>685</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1222</v>
+      </c>
+      <c r="H18" t="n">
+        <v>945</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1185.346017846027</v>
+      </c>
+      <c r="J18" t="n">
+        <v>489.154715214443</v>
+      </c>
+      <c r="K18" t="n">
+        <v>637.4969783651244</v>
+      </c>
+      <c r="L18" t="n">
+        <v>537.4931014426646</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -541,16 +541,16 @@
         <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>15483.79340438181</v>
+        <v>14991.56212517535</v>
       </c>
       <c r="J3" t="n">
-        <v>14942.45123671909</v>
+        <v>14317.16456723194</v>
       </c>
       <c r="K3" t="n">
-        <v>14828.59402439194</v>
+        <v>12806.6342448785</v>
       </c>
       <c r="L3" t="n">
-        <v>14324.84448588809</v>
+        <v>12385.315300294</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>6192.793404381809</v>
+        <v>5700.562125175347</v>
       </c>
       <c r="J4" t="n">
-        <v>5651.451236719086</v>
+        <v>5026.164567231936</v>
       </c>
       <c r="K4" t="n">
-        <v>5537.594024391942</v>
+        <v>3515.634244878501</v>
       </c>
       <c r="L4" t="n">
-        <v>5033.844485888093</v>
+        <v>3094.315300293999</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>7920.574609052014</v>
+        <v>7774.83015734564</v>
       </c>
       <c r="J5" t="n">
-        <v>7821.13978355974</v>
+        <v>7746.807952052017</v>
       </c>
       <c r="K5" t="n">
-        <v>7814.050179185245</v>
+        <v>7743.944130349251</v>
       </c>
       <c r="L5" t="n">
-        <v>7792.344983187198</v>
+        <v>7702.162242385847</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>3222</v>
       </c>
       <c r="I6" t="n">
-        <v>3217.574609052015</v>
+        <v>3071.830157345641</v>
       </c>
       <c r="J6" t="n">
-        <v>3118.13978355974</v>
+        <v>3043.807952052017</v>
       </c>
       <c r="K6" t="n">
-        <v>3111.050179185246</v>
+        <v>3040.944130349252</v>
       </c>
       <c r="L6" t="n">
-        <v>3089.344983187198</v>
+        <v>2999.162242385848</v>
       </c>
     </row>
     <row r="7">
@@ -781,16 +781,16 @@
         <v>7440</v>
       </c>
       <c r="I9" t="n">
-        <v>7747.270084936628</v>
+        <v>7972.154239478913</v>
       </c>
       <c r="J9" t="n">
-        <v>7783.151264592057</v>
+        <v>7855.193671865969</v>
       </c>
       <c r="K9" t="n">
-        <v>9303.295549413649</v>
+        <v>7598.33389142626</v>
       </c>
       <c r="L9" t="n">
-        <v>8806.295302360937</v>
+        <v>9541.254370752284</v>
       </c>
     </row>
     <row r="10">
@@ -821,16 +821,16 @@
         <v>6329</v>
       </c>
       <c r="I10" t="n">
-        <v>7593.026731854488</v>
+        <v>5212.782484926493</v>
       </c>
       <c r="J10" t="n">
-        <v>6396.936570211946</v>
+        <v>6112.576698616414</v>
       </c>
       <c r="K10" t="n">
-        <v>6482.487767235281</v>
+        <v>7555.69276698754</v>
       </c>
       <c r="L10" t="n">
-        <v>7315.168918440962</v>
+        <v>9221.628867485349</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>5538</v>
       </c>
       <c r="I11" t="n">
-        <v>3957.908650697719</v>
+        <v>4334.30757992139</v>
       </c>
       <c r="J11" t="n">
-        <v>6607.693794056043</v>
+        <v>4831.162436457731</v>
       </c>
       <c r="K11" t="n">
-        <v>4776.899457344946</v>
+        <v>4208.830157786327</v>
       </c>
       <c r="L11" t="n">
-        <v>6659.087484434123</v>
+        <v>4705.676984440398</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>1894</v>
       </c>
       <c r="I12" t="n">
-        <v>2091.154764929256</v>
+        <v>1833.234444981127</v>
       </c>
       <c r="J12" t="n">
-        <v>1357.332265072447</v>
+        <v>1776.675415116306</v>
       </c>
       <c r="K12" t="n">
-        <v>1690.351068738577</v>
+        <v>2149.850780610996</v>
       </c>
       <c r="L12" t="n">
-        <v>1932.320301549357</v>
+        <v>2032.369118649493</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>10158</v>
       </c>
       <c r="I13" t="n">
-        <v>16158.53078482407</v>
+        <v>2094.211249331173</v>
       </c>
       <c r="J13" t="n">
-        <v>11027.40085956693</v>
+        <v>6428.353081270055</v>
       </c>
       <c r="K13" t="n">
-        <v>10288.73117153517</v>
+        <v>11319.52769589376</v>
       </c>
       <c r="L13" t="n">
-        <v>10877.15815851117</v>
+        <v>17174.44709542909</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>9162</v>
       </c>
       <c r="I14" t="n">
-        <v>5431.812489422948</v>
+        <v>6910.073911689069</v>
       </c>
       <c r="J14" t="n">
-        <v>8364.439372221366</v>
+        <v>5898.062781755606</v>
       </c>
       <c r="K14" t="n">
-        <v>5811.170420547514</v>
+        <v>7715.216100622814</v>
       </c>
       <c r="L14" t="n">
-        <v>8904.689333173377</v>
+        <v>12128.98064675359</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>9895</v>
       </c>
       <c r="I15" t="n">
-        <v>10661.07115546742</v>
+        <v>5407.998754463453</v>
       </c>
       <c r="J15" t="n">
-        <v>6057.015179470263</v>
+        <v>11380.68465161187</v>
       </c>
       <c r="K15" t="n">
-        <v>12212.52546211912</v>
+        <v>11525.77518505235</v>
       </c>
       <c r="L15" t="n">
-        <v>8001.009213669382</v>
+        <v>13765.82869025256</v>
       </c>
     </row>
     <row r="16">
@@ -1061,16 +1061,16 @@
         <v>9627</v>
       </c>
       <c r="I16" t="n">
-        <v>9007.296989156181</v>
+        <v>9447.580227216897</v>
       </c>
       <c r="J16" t="n">
-        <v>7710.512576201685</v>
+        <v>11129.54789867503</v>
       </c>
       <c r="K16" t="n">
-        <v>6119.224945685946</v>
+        <v>8978.451665766035</v>
       </c>
       <c r="L16" t="n">
-        <v>5699.825720071295</v>
+        <v>6797.533882516793</v>
       </c>
     </row>
     <row r="17">
@@ -1101,16 +1101,16 @@
         <v>483</v>
       </c>
       <c r="I17" t="n">
-        <v>-754.9305469578724</v>
+        <v>1657.658698649949</v>
       </c>
       <c r="J17" t="n">
-        <v>920.7541313876143</v>
+        <v>1691.212913478342</v>
       </c>
       <c r="K17" t="n">
-        <v>489.4213776571441</v>
+        <v>3282.27372123745</v>
       </c>
       <c r="L17" t="n">
-        <v>2655.748094849524</v>
+        <v>1150.576009246736</v>
       </c>
     </row>
     <row r="18">
@@ -1141,16 +1141,16 @@
         <v>945</v>
       </c>
       <c r="I18" t="n">
-        <v>1185.346017846027</v>
+        <v>933.6011235485776</v>
       </c>
       <c r="J18" t="n">
-        <v>489.154715214443</v>
+        <v>704.6636012021042</v>
       </c>
       <c r="K18" t="n">
-        <v>637.4969783651244</v>
+        <v>811.2891300704425</v>
       </c>
       <c r="L18" t="n">
-        <v>537.4931014426646</v>
+        <v>649.7347443845357</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -541,16 +541,16 @@
         <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>14991.56212517535</v>
+        <v>15430.56896385972</v>
       </c>
       <c r="J3" t="n">
-        <v>14317.16456723194</v>
+        <v>14894.92699477457</v>
       </c>
       <c r="K3" t="n">
-        <v>12806.6342448785</v>
+        <v>14141.57913023878</v>
       </c>
       <c r="L3" t="n">
-        <v>12385.315300294</v>
+        <v>14605.74785542886</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>5700.562125175347</v>
+        <v>6139.568963859718</v>
       </c>
       <c r="J4" t="n">
-        <v>5026.164567231936</v>
+        <v>5603.926994774572</v>
       </c>
       <c r="K4" t="n">
-        <v>3515.634244878501</v>
+        <v>4850.579130238775</v>
       </c>
       <c r="L4" t="n">
-        <v>3094.315300293999</v>
+        <v>5314.747855428863</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>7774.83015734564</v>
+        <v>7918.52222284909</v>
       </c>
       <c r="J5" t="n">
-        <v>7746.807952052017</v>
+        <v>7822.958008209906</v>
       </c>
       <c r="K5" t="n">
-        <v>7743.944130349251</v>
+        <v>7740.947022628772</v>
       </c>
       <c r="L5" t="n">
-        <v>7702.162242385847</v>
+        <v>7647.554848140446</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>3222</v>
       </c>
       <c r="I6" t="n">
-        <v>3071.830157345641</v>
+        <v>3215.52222284909</v>
       </c>
       <c r="J6" t="n">
-        <v>3043.807952052017</v>
+        <v>3119.958008209906</v>
       </c>
       <c r="K6" t="n">
-        <v>3040.944130349252</v>
+        <v>3037.947022628773</v>
       </c>
       <c r="L6" t="n">
-        <v>2999.162242385848</v>
+        <v>2944.554848140446</v>
       </c>
     </row>
     <row r="7">
@@ -781,16 +781,16 @@
         <v>7440</v>
       </c>
       <c r="I9" t="n">
-        <v>7972.154239478913</v>
+        <v>8031.433192621956</v>
       </c>
       <c r="J9" t="n">
-        <v>7855.193671865969</v>
+        <v>9569.202184356925</v>
       </c>
       <c r="K9" t="n">
-        <v>7598.33389142626</v>
+        <v>8336.911920824912</v>
       </c>
       <c r="L9" t="n">
-        <v>9541.254370752284</v>
+        <v>8786.604919068574</v>
       </c>
     </row>
     <row r="10">
@@ -821,16 +821,16 @@
         <v>6329</v>
       </c>
       <c r="I10" t="n">
-        <v>5212.782484926493</v>
+        <v>5737.802524012915</v>
       </c>
       <c r="J10" t="n">
-        <v>6112.576698616414</v>
+        <v>7521.247178569163</v>
       </c>
       <c r="K10" t="n">
-        <v>7555.69276698754</v>
+        <v>7168.86398913444</v>
       </c>
       <c r="L10" t="n">
-        <v>9221.628867485349</v>
+        <v>8080.604588444964</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>5538</v>
       </c>
       <c r="I11" t="n">
-        <v>4334.30757992139</v>
+        <v>7159.501420318037</v>
       </c>
       <c r="J11" t="n">
-        <v>4831.162436457731</v>
+        <v>5220.056095066897</v>
       </c>
       <c r="K11" t="n">
-        <v>4208.830157786327</v>
+        <v>4612.868472473533</v>
       </c>
       <c r="L11" t="n">
-        <v>4705.676984440398</v>
+        <v>4504.945379716054</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>1894</v>
       </c>
       <c r="I12" t="n">
-        <v>1833.234444981127</v>
+        <v>2256.50769572628</v>
       </c>
       <c r="J12" t="n">
-        <v>1776.675415116306</v>
+        <v>1247.646879101022</v>
       </c>
       <c r="K12" t="n">
-        <v>2149.850780610996</v>
+        <v>2075.316776258048</v>
       </c>
       <c r="L12" t="n">
-        <v>2032.369118649493</v>
+        <v>2340.224959759706</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>10158</v>
       </c>
       <c r="I13" t="n">
-        <v>2094.211249331173</v>
+        <v>12509.62042397876</v>
       </c>
       <c r="J13" t="n">
-        <v>6428.353081270055</v>
+        <v>6857.89016469173</v>
       </c>
       <c r="K13" t="n">
-        <v>11319.52769589376</v>
+        <v>4746.791906665649</v>
       </c>
       <c r="L13" t="n">
-        <v>17174.44709542909</v>
+        <v>13448.13799819143</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>9162</v>
       </c>
       <c r="I14" t="n">
-        <v>6910.073911689069</v>
+        <v>7030.227536050312</v>
       </c>
       <c r="J14" t="n">
-        <v>5898.062781755606</v>
+        <v>6768.198769424047</v>
       </c>
       <c r="K14" t="n">
-        <v>7715.216100622814</v>
+        <v>6473.576562505354</v>
       </c>
       <c r="L14" t="n">
-        <v>12128.98064675359</v>
+        <v>9570.720492710208</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>9895</v>
       </c>
       <c r="I15" t="n">
-        <v>5407.998754463453</v>
+        <v>5741.866461005041</v>
       </c>
       <c r="J15" t="n">
-        <v>11380.68465161187</v>
+        <v>8676.207749074309</v>
       </c>
       <c r="K15" t="n">
-        <v>11525.77518505235</v>
+        <v>8569.683241742543</v>
       </c>
       <c r="L15" t="n">
-        <v>13765.82869025256</v>
+        <v>13215.10697203662</v>
       </c>
     </row>
     <row r="16">
@@ -1061,16 +1061,16 @@
         <v>9627</v>
       </c>
       <c r="I16" t="n">
-        <v>9447.580227216897</v>
+        <v>7909.268408224018</v>
       </c>
       <c r="J16" t="n">
-        <v>11129.54789867503</v>
+        <v>7666.213326228162</v>
       </c>
       <c r="K16" t="n">
-        <v>8978.451665766035</v>
+        <v>12475.03480954889</v>
       </c>
       <c r="L16" t="n">
-        <v>6797.533882516793</v>
+        <v>9881.189474487797</v>
       </c>
     </row>
     <row r="17">
@@ -1101,16 +1101,16 @@
         <v>483</v>
       </c>
       <c r="I17" t="n">
-        <v>1657.658698649949</v>
+        <v>842.4420805288258</v>
       </c>
       <c r="J17" t="n">
-        <v>1691.212913478342</v>
+        <v>2018.108923936157</v>
       </c>
       <c r="K17" t="n">
-        <v>3282.27372123745</v>
+        <v>1156.295850441127</v>
       </c>
       <c r="L17" t="n">
-        <v>1150.576009246736</v>
+        <v>3753.692193643371</v>
       </c>
     </row>
     <row r="18">
@@ -1141,16 +1141,16 @@
         <v>945</v>
       </c>
       <c r="I18" t="n">
-        <v>933.6011235485776</v>
+        <v>605.6332221578635</v>
       </c>
       <c r="J18" t="n">
-        <v>704.6636012021042</v>
+        <v>543.0727625037938</v>
       </c>
       <c r="K18" t="n">
-        <v>811.2891300704425</v>
+        <v>677.0258829520658</v>
       </c>
       <c r="L18" t="n">
-        <v>649.7347443845357</v>
+        <v>1411.439696075065</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,16 +541,16 @@
         <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>15430.56896385972</v>
+        <v>14991.36534764423</v>
       </c>
       <c r="J3" t="n">
-        <v>14894.92699477457</v>
+        <v>15499.80119987915</v>
       </c>
       <c r="K3" t="n">
-        <v>14141.57913023878</v>
+        <v>15008.38513946217</v>
       </c>
       <c r="L3" t="n">
-        <v>14605.74785542886</v>
+        <v>14323.70944535224</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>6139.568963859718</v>
+        <v>5700.365347644232</v>
       </c>
       <c r="J4" t="n">
-        <v>5603.926994774572</v>
+        <v>6208.80119987915</v>
       </c>
       <c r="K4" t="n">
-        <v>4850.579130238775</v>
+        <v>5717.385139462165</v>
       </c>
       <c r="L4" t="n">
-        <v>5314.747855428863</v>
+        <v>5032.709445352238</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>7918.52222284909</v>
+        <v>7843.432925149277</v>
       </c>
       <c r="J5" t="n">
-        <v>7822.958008209906</v>
+        <v>7736.559422968232</v>
       </c>
       <c r="K5" t="n">
-        <v>7740.947022628772</v>
+        <v>7660.898832473976</v>
       </c>
       <c r="L5" t="n">
-        <v>7647.554848140446</v>
+        <v>7643.117398542671</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>3222</v>
       </c>
       <c r="I6" t="n">
-        <v>3215.52222284909</v>
+        <v>3140.432925149277</v>
       </c>
       <c r="J6" t="n">
-        <v>3119.958008209906</v>
+        <v>3033.559422968231</v>
       </c>
       <c r="K6" t="n">
-        <v>3037.947022628773</v>
+        <v>2957.898832473975</v>
       </c>
       <c r="L6" t="n">
-        <v>2944.554848140446</v>
+        <v>2940.117398542671</v>
       </c>
     </row>
     <row r="7">
@@ -781,16 +781,16 @@
         <v>7440</v>
       </c>
       <c r="I9" t="n">
-        <v>8031.433192621956</v>
+        <v>7586.152548450515</v>
       </c>
       <c r="J9" t="n">
-        <v>9569.202184356925</v>
+        <v>6843.221538555887</v>
       </c>
       <c r="K9" t="n">
-        <v>8336.911920824912</v>
+        <v>9240.261240038853</v>
       </c>
       <c r="L9" t="n">
-        <v>8786.604919068574</v>
+        <v>9851.833391277019</v>
       </c>
     </row>
     <row r="10">
@@ -821,16 +821,16 @@
         <v>6329</v>
       </c>
       <c r="I10" t="n">
-        <v>5737.802524012915</v>
+        <v>6181.485664194503</v>
       </c>
       <c r="J10" t="n">
-        <v>7521.247178569163</v>
+        <v>6326.448708804585</v>
       </c>
       <c r="K10" t="n">
-        <v>7168.86398913444</v>
+        <v>5335.889825512596</v>
       </c>
       <c r="L10" t="n">
-        <v>8080.604588444964</v>
+        <v>6118.38002228667</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>5538</v>
       </c>
       <c r="I11" t="n">
-        <v>7159.501420318037</v>
+        <v>3417.149707325618</v>
       </c>
       <c r="J11" t="n">
-        <v>5220.056095066897</v>
+        <v>4886.306405637453</v>
       </c>
       <c r="K11" t="n">
-        <v>4612.868472473533</v>
+        <v>5059.224022876878</v>
       </c>
       <c r="L11" t="n">
-        <v>4504.945379716054</v>
+        <v>7787.415530430558</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>1894</v>
       </c>
       <c r="I12" t="n">
-        <v>2256.50769572628</v>
+        <v>2072.186433646499</v>
       </c>
       <c r="J12" t="n">
-        <v>1247.646879101022</v>
+        <v>1927.505884071511</v>
       </c>
       <c r="K12" t="n">
-        <v>2075.316776258048</v>
+        <v>1891.134496171557</v>
       </c>
       <c r="L12" t="n">
-        <v>2340.224959759706</v>
+        <v>1819.893419531384</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>10158</v>
       </c>
       <c r="I13" t="n">
-        <v>12509.62042397876</v>
+        <v>5139.656349860523</v>
       </c>
       <c r="J13" t="n">
-        <v>6857.89016469173</v>
+        <v>9695.644255967658</v>
       </c>
       <c r="K13" t="n">
-        <v>4746.791906665649</v>
+        <v>9424.707187203792</v>
       </c>
       <c r="L13" t="n">
-        <v>13448.13799819143</v>
+        <v>11000.39910767931</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>9162</v>
       </c>
       <c r="I14" t="n">
-        <v>7030.227536050312</v>
+        <v>8622.946621604329</v>
       </c>
       <c r="J14" t="n">
-        <v>6768.198769424047</v>
+        <v>7599.478344123978</v>
       </c>
       <c r="K14" t="n">
-        <v>6473.576562505354</v>
+        <v>8007.954010278985</v>
       </c>
       <c r="L14" t="n">
-        <v>9570.720492710208</v>
+        <v>9615.432430904943</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>9895</v>
       </c>
       <c r="I15" t="n">
-        <v>5741.866461005041</v>
+        <v>7314.173568000546</v>
       </c>
       <c r="J15" t="n">
-        <v>8676.207749074309</v>
+        <v>6905.749306049219</v>
       </c>
       <c r="K15" t="n">
-        <v>8569.683241742543</v>
+        <v>12546.54760212727</v>
       </c>
       <c r="L15" t="n">
-        <v>13215.10697203662</v>
+        <v>13309.59094417491</v>
       </c>
     </row>
     <row r="16">
@@ -1061,16 +1061,16 @@
         <v>9627</v>
       </c>
       <c r="I16" t="n">
-        <v>7909.268408224018</v>
+        <v>9363.715309431054</v>
       </c>
       <c r="J16" t="n">
-        <v>7666.213326228162</v>
+        <v>7692.086428969832</v>
       </c>
       <c r="K16" t="n">
-        <v>12475.03480954889</v>
+        <v>5800.945302866619</v>
       </c>
       <c r="L16" t="n">
-        <v>9881.189474487797</v>
+        <v>3917.079708733329</v>
       </c>
     </row>
     <row r="17">
@@ -1101,16 +1101,16 @@
         <v>483</v>
       </c>
       <c r="I17" t="n">
-        <v>842.4420805288258</v>
+        <v>-20.82958676645212</v>
       </c>
       <c r="J17" t="n">
-        <v>2018.108923936157</v>
+        <v>-1401.000863628566</v>
       </c>
       <c r="K17" t="n">
-        <v>1156.295850441127</v>
+        <v>2967.096359855932</v>
       </c>
       <c r="L17" t="n">
-        <v>3753.692193643371</v>
+        <v>18.84162542803081</v>
       </c>
     </row>
     <row r="18">
@@ -1141,16 +1141,56 @@
         <v>945</v>
       </c>
       <c r="I18" t="n">
-        <v>605.6332221578635</v>
+        <v>957.5885953606075</v>
       </c>
       <c r="J18" t="n">
-        <v>543.0727625037938</v>
+        <v>443.5468569313545</v>
       </c>
       <c r="K18" t="n">
-        <v>677.0258829520658</v>
+        <v>440.2251758109347</v>
       </c>
       <c r="L18" t="n">
-        <v>1411.439696075065</v>
+        <v>314.100028250744</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Tot_Assets</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>54146</v>
+      </c>
+      <c r="C19" t="n">
+        <v>59470</v>
+      </c>
+      <c r="D19" t="n">
+        <v>57773</v>
+      </c>
+      <c r="E19" t="n">
+        <v>58679</v>
+      </c>
+      <c r="F19" t="n">
+        <v>64586</v>
+      </c>
+      <c r="G19" t="n">
+        <v>64470</v>
+      </c>
+      <c r="H19" t="n">
+        <v>62275</v>
+      </c>
+      <c r="I19" t="n">
+        <v>54853.41763010187</v>
+      </c>
+      <c r="J19" t="n">
+        <v>56826.67112935251</v>
+      </c>
+      <c r="K19" t="n">
+        <v>60995.87775676071</v>
+      </c>
+      <c r="L19" t="n">
+        <v>60179.38965522529</v>
       </c>
     </row>
   </sheetData>

--- a/FSV_OP_BS.xlsx
+++ b/FSV_OP_BS.xlsx
@@ -541,16 +541,16 @@
         <v>14762</v>
       </c>
       <c r="I3" t="n">
-        <v>14991.36534764423</v>
+        <v>15242.17180987626</v>
       </c>
       <c r="J3" t="n">
-        <v>15499.80119987915</v>
+        <v>15107.36440686</v>
       </c>
       <c r="K3" t="n">
-        <v>15008.38513946217</v>
+        <v>16096.93513513969</v>
       </c>
       <c r="L3" t="n">
-        <v>14323.70944535224</v>
+        <v>15185.75967834813</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         <v>5471</v>
       </c>
       <c r="I4" t="n">
-        <v>5700.365347644232</v>
+        <v>5951.171809876259</v>
       </c>
       <c r="J4" t="n">
-        <v>6208.80119987915</v>
+        <v>5816.364406859996</v>
       </c>
       <c r="K4" t="n">
-        <v>5717.385139462165</v>
+        <v>6805.935135139694</v>
       </c>
       <c r="L4" t="n">
-        <v>5032.709445352238</v>
+        <v>5894.759678348128</v>
       </c>
     </row>
     <row r="5">
@@ -621,16 +621,16 @@
         <v>7925</v>
       </c>
       <c r="I5" t="n">
-        <v>7843.432925149277</v>
+        <v>7886.105823686557</v>
       </c>
       <c r="J5" t="n">
-        <v>7736.559422968232</v>
+        <v>7802.562059116971</v>
       </c>
       <c r="K5" t="n">
-        <v>7660.898832473976</v>
+        <v>7736.417626715914</v>
       </c>
       <c r="L5" t="n">
-        <v>7643.117398542671</v>
+        <v>7709.726661252342</v>
       </c>
     </row>
     <row r="6">
@@ -661,16 +661,16 @@
         <v>3222</v>
       </c>
       <c r="I6" t="n">
-        <v>3140.432925149277</v>
+        <v>3183.105823686557</v>
       </c>
       <c r="J6" t="n">
-        <v>3033.559422968231</v>
+        <v>3099.56205911697</v>
       </c>
       <c r="K6" t="n">
-        <v>2957.898832473975</v>
+        <v>3033.417626715913</v>
       </c>
       <c r="L6" t="n">
-        <v>2940.117398542671</v>
+        <v>3006.726661252341</v>
       </c>
     </row>
     <row r="7">
@@ -781,16 +781,16 @@
         <v>7440</v>
       </c>
       <c r="I9" t="n">
-        <v>7586.152548450515</v>
+        <v>7688.199167947922</v>
       </c>
       <c r="J9" t="n">
-        <v>6843.221538555887</v>
+        <v>7886.856470014899</v>
       </c>
       <c r="K9" t="n">
-        <v>9240.261240038853</v>
+        <v>8723.577663910495</v>
       </c>
       <c r="L9" t="n">
-        <v>9851.833391277019</v>
+        <v>8750.787295390146</v>
       </c>
     </row>
     <row r="10">
@@ -821,16 +821,16 @@
         <v>6329</v>
       </c>
       <c r="I10" t="n">
-        <v>6181.485664194503</v>
+        <v>6781.139499284796</v>
       </c>
       <c r="J10" t="n">
-        <v>6326.448708804585</v>
+        <v>6140.018234228349</v>
       </c>
       <c r="K10" t="n">
-        <v>5335.889825512596</v>
+        <v>6294.293263061734</v>
       </c>
       <c r="L10" t="n">
-        <v>6118.38002228667</v>
+        <v>8568.84772422591</v>
       </c>
     </row>
     <row r="11">
@@ -861,16 +861,16 @@
         <v>5538</v>
       </c>
       <c r="I11" t="n">
-        <v>3417.149707325618</v>
+        <v>5354.743365089543</v>
       </c>
       <c r="J11" t="n">
-        <v>4886.306405637453</v>
+        <v>6095.442895651671</v>
       </c>
       <c r="K11" t="n">
-        <v>5059.224022876878</v>
+        <v>5248.545729907859</v>
       </c>
       <c r="L11" t="n">
-        <v>7787.415530430558</v>
+        <v>6612.100862423502</v>
       </c>
     </row>
     <row r="12">
@@ -901,16 +901,16 @@
         <v>1894</v>
       </c>
       <c r="I12" t="n">
-        <v>2072.186433646499</v>
+        <v>933.3767952141222</v>
       </c>
       <c r="J12" t="n">
-        <v>1927.505884071511</v>
+        <v>1779.617467672616</v>
       </c>
       <c r="K12" t="n">
-        <v>1891.134496171557</v>
+        <v>2474.090895249038</v>
       </c>
       <c r="L12" t="n">
-        <v>1819.893419531384</v>
+        <v>2090.727871416801</v>
       </c>
     </row>
     <row r="13">
@@ -941,16 +941,16 @@
         <v>10158</v>
       </c>
       <c r="I13" t="n">
-        <v>5139.656349860523</v>
+        <v>14651.39101724109</v>
       </c>
       <c r="J13" t="n">
-        <v>9695.644255967658</v>
+        <v>3712.936386707331</v>
       </c>
       <c r="K13" t="n">
-        <v>9424.707187203792</v>
+        <v>15002.85622043331</v>
       </c>
       <c r="L13" t="n">
-        <v>11000.39910767931</v>
+        <v>17252.37843939404</v>
       </c>
     </row>
     <row r="14">
@@ -981,16 +981,16 @@
         <v>9162</v>
       </c>
       <c r="I14" t="n">
-        <v>8622.946621604329</v>
+        <v>9400.526766042063</v>
       </c>
       <c r="J14" t="n">
-        <v>7599.478344123978</v>
+        <v>8493.056510178531</v>
       </c>
       <c r="K14" t="n">
-        <v>8007.954010278985</v>
+        <v>10054.58970154474</v>
       </c>
       <c r="L14" t="n">
-        <v>9615.432430904943</v>
+        <v>6707.304598824433</v>
       </c>
     </row>
     <row r="15">
@@ -1021,16 +1021,16 @@
         <v>9895</v>
       </c>
       <c r="I15" t="n">
-        <v>7314.173568000546</v>
+        <v>8079.073154113059</v>
       </c>
       <c r="J15" t="n">
-        <v>6905.749306049219</v>
+        <v>12913.08684523195</v>
       </c>
       <c r="K15" t="n">
-        <v>12546.54760212727</v>
+        <v>13436.89222591649</v>
       </c>
       <c r="L15" t="n">
-        <v>13309.59094417491</v>
+        <v>8955.148911120365</v>
       </c>
     </row>
     <row r="16">
@@ -1061,16 +1061,16 @@
         <v>9627</v>
       </c>
       <c r="I16" t="n">
-        <v>9363.715309431054</v>
+        <v>8278.568581535066</v>
       </c>
       <c r="J16" t="n">
-        <v>7692.086428969832</v>
+        <v>11198.97162744459</v>
       </c>
       <c r="K16" t="n">
-        <v>5800.945302866619</v>
+        <v>9150.768834469196</v>
       </c>
       <c r="L16" t="n">
-        <v>3917.079708733329</v>
+        <v>9539.000588278921</v>
       </c>
     </row>
     <row r="17">
@@ -1101,16 +1101,16 @@
         <v>483</v>
       </c>
       <c r="I17" t="n">
-        <v>-20.82958676645212</v>
+        <v>680.7073411766546</v>
       </c>
       <c r="J17" t="n">
-        <v>-1401.000863628566</v>
+        <v>-526.9235843905718</v>
       </c>
       <c r="K17" t="n">
-        <v>2967.096359855932</v>
+        <v>690.1272452950762</v>
       </c>
       <c r="L17" t="n">
-        <v>18.84162542803081</v>
+        <v>30.29717150278799</v>
       </c>
     </row>
     <row r="18">
@@ -1141,16 +1141,16 @@
         <v>945</v>
       </c>
       <c r="I18" t="n">
-        <v>957.5885953606075</v>
+        <v>733.7075772835858</v>
       </c>
       <c r="J18" t="n">
-        <v>443.5468569313545</v>
+        <v>707.3967355513862</v>
       </c>
       <c r="K18" t="n">
-        <v>440.2251758109347</v>
+        <v>836.4507053993261</v>
       </c>
       <c r="L18" t="n">
-        <v>314.100028250744</v>
+        <v>1091.462959479407</v>
       </c>
     </row>
     <row r="19">
@@ -1181,16 +1181,16 @@
         <v>62275</v>
       </c>
       <c r="I19" t="n">
-        <v>54853.41763010187</v>
+        <v>64951.97147905079</v>
       </c>
       <c r="J19" t="n">
-        <v>56826.67112935251</v>
+        <v>57267.22446462889</v>
       </c>
       <c r="K19" t="n">
-        <v>60995.87775676071</v>
+        <v>69462.77005651992</v>
       </c>
       <c r="L19" t="n">
-        <v>60179.38965522529</v>
+        <v>71765.24152748607</v>
       </c>
     </row>
   </sheetData>
